--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.settlement.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.settlement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8115BB51-01A8-1E48-A150-8491C57B2430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96807CC-AF62-8343-A5DB-67F2264F9F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52980" yWindow="-4540" windowWidth="43060" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64400" yWindow="-8320" windowWidth="43060" windowHeight="22560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>4a8f0fa8-cca7-41e2-b4db-d28d2b673cdf</t>
-  </si>
-  <si>
     <t>perm.settlement.read</t>
   </si>
   <si>
@@ -70,33 +67,18 @@
     <t>结算管理</t>
   </si>
   <si>
-    <t>04f2145b-520e-4ae2-b041-1d6df72cee63</t>
-  </si>
-  <si>
     <t>perm.settlement.add</t>
   </si>
   <si>
-    <t>e68ed510-bef1-4465-83fe-1699632c3b7c</t>
-  </si>
-  <si>
     <t>perm.settlement.edit</t>
   </si>
   <si>
-    <t>dbbff245-6b10-4d43-b362-fe887c53da13</t>
-  </si>
-  <si>
     <t>perm.settlement.delete</t>
   </si>
   <si>
-    <t>e14b7a9d-d7b5-4512-8e59-8f8f04bc0249</t>
-  </si>
-  <si>
     <t>perm.settlement.column</t>
   </si>
   <si>
-    <t>afd492ba-3284-470b-98c7-05e8918a8aea</t>
-  </si>
-  <si>
     <t>perm.settlement.imp.exp</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>02babc5b-41c0-4dce-9716-d42b1ba7bb63</t>
-  </si>
-  <si>
     <t>结算单读取</t>
   </si>
   <si>
@@ -139,42 +118,27 @@
     <t>fm.settlement</t>
   </si>
   <si>
-    <t>dcc5a18d-95ad-4172-b2b3-6fd0749f305b</t>
-  </si>
-  <si>
     <t>结算单添加</t>
   </si>
   <si>
     <t>结算单添加、集成添加</t>
   </si>
   <si>
-    <t>564afdff-aed5-4d91-b65a-030ff876bf46</t>
-  </si>
-  <si>
     <t>结算单更新</t>
   </si>
   <si>
     <t>结算单编辑、审批、集成更新</t>
   </si>
   <si>
-    <t>9b84f53e-1ff0-4254-9b28-18597aca1d9a</t>
-  </si>
-  <si>
     <t>结算单删除</t>
   </si>
   <si>
-    <t>5f736394-e55c-4745-9b04-7483853fc4a0</t>
-  </si>
-  <si>
     <t>结算单列变更</t>
   </si>
   <si>
     <t>结算单列管理</t>
   </si>
   <si>
-    <t>df38151c-4a42-4d5e-8ac2-74761df12603</t>
-  </si>
-  <si>
     <t>结算单导入/导出</t>
   </si>
   <si>
@@ -232,9 +196,6 @@
     <t>renewalCredit</t>
   </si>
   <si>
-    <t>6b881edd-03f2-4705-acea-559524d13f18</t>
-  </si>
-  <si>
     <t>act.settlement.read</t>
   </si>
   <si>
@@ -247,9 +208,6 @@
     <t>读取</t>
   </si>
   <si>
-    <t>55389672-683b-456e-a137-7013e17d39ca</t>
-  </si>
-  <si>
     <t>act.settlement.add</t>
   </si>
   <si>
@@ -262,9 +220,6 @@
     <t>添加</t>
   </si>
   <si>
-    <t>a04f2fb0-0203-455a-a954-df078b4e6658</t>
-  </si>
-  <si>
     <t>act.settlement.edit</t>
   </si>
   <si>
@@ -274,9 +229,6 @@
     <t>编辑</t>
   </si>
   <si>
-    <t>042dca56-4474-43ec-bd97-867b4ff1be57</t>
-  </si>
-  <si>
     <t>act.settlement.delete</t>
   </si>
   <si>
@@ -286,9 +238,6 @@
     <t>删除</t>
   </si>
   <si>
-    <t>fa62cb6d-3db2-4740-be79-c06a0330a2d5</t>
-  </si>
-  <si>
     <t>act.settlement.search</t>
   </si>
   <si>
@@ -298,9 +247,6 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>e0e66e23-a17a-406a-b7c6-d5ef968fea33</t>
-  </si>
-  <si>
     <t>act.settlement.batch.edit</t>
   </si>
   <si>
@@ -310,9 +256,6 @@
     <t>批量编辑</t>
   </si>
   <si>
-    <t>ed37844c-5b5e-473d-9efe-90a840c7f50d</t>
-  </si>
-  <si>
     <t>act.settlement.batch.delete</t>
   </si>
   <si>
@@ -322,9 +265,6 @@
     <t>批量删除</t>
   </si>
   <si>
-    <t>3919f89a-8d3c-4d17-b97a-b60f56b2b9cb</t>
-  </si>
-  <si>
     <t>act.settlement.column.full</t>
   </si>
   <si>
@@ -334,9 +274,6 @@
     <t>读全列</t>
   </si>
   <si>
-    <t>90ba0379-3e15-40ff-b21b-0439c3b114a4</t>
-  </si>
-  <si>
     <t>act.settlement.column.get</t>
   </si>
   <si>
@@ -346,18 +283,12 @@
     <t>读视图</t>
   </si>
   <si>
-    <t>30f708c2-3f7e-4ad6-9eca-6ba5898620bd</t>
-  </si>
-  <si>
     <t>act.settlement.column.edit</t>
   </si>
   <si>
     <t>更新视图</t>
   </si>
   <si>
-    <t>0ed7ecaf-2fea-46c4-be12-d2b425035f6b</t>
-  </si>
-  <si>
     <t>act.settlement.import</t>
   </si>
   <si>
@@ -367,9 +298,6 @@
     <t>导入</t>
   </si>
   <si>
-    <t>699b1843-9e58-45b9-885b-b8466440c66a</t>
-  </si>
-  <si>
     <t>act.settlement.export</t>
   </si>
   <si>
@@ -379,9 +307,6 @@
     <t>导出</t>
   </si>
   <si>
-    <t>f59c088e-e3dc-49a2-9f9b-18f19bd9aeb6</t>
-  </si>
-  <si>
     <t>act.settlement.existing</t>
   </si>
   <si>
@@ -391,9 +316,6 @@
     <t>存在</t>
   </si>
   <si>
-    <t>816cba14-f52e-4425-9fc5-190a9a0fe8dc</t>
-  </si>
-  <si>
     <t>act.settlement.missing</t>
   </si>
   <si>
@@ -403,9 +325,6 @@
     <t>丢失</t>
   </si>
   <si>
-    <t>b57d231e-c324-4824-a352-1cc893f23516</t>
-  </si>
-  <si>
     <t>act.settlement.by.sigma</t>
   </si>
   <si>
@@ -460,9 +379,6 @@
     <t>seekSyntax</t>
   </si>
   <si>
-    <t>5d0f1e45-a6c8-4e6b-b786-a096f273c779</t>
-  </si>
-  <si>
     <t>读取结算单</t>
   </si>
   <si>
@@ -478,127 +394,211 @@
     <t>JSON:plugin/ke/rule.form/fm.settlement.json</t>
   </si>
   <si>
-    <t>389ca776-eefc-4605-88e6-d8b75c256b85</t>
-  </si>
-  <si>
     <t>添加结算单</t>
   </si>
   <si>
     <t>res.settlement.add</t>
   </si>
   <si>
-    <t>b9d00842-381e-4d98-a55b-2e18c30978db</t>
-  </si>
-  <si>
     <t>编辑结算单</t>
   </si>
   <si>
     <t>res.settlement.edit</t>
   </si>
   <si>
-    <t>95016f05-073f-49a8-bb8f-836cee61a3c2</t>
-  </si>
-  <si>
     <t>删除结算单</t>
   </si>
   <si>
     <t>res.settlement.delete</t>
   </si>
   <si>
-    <t>7bf58a04-40c6-494f-9255-c0b8b27edbea</t>
-  </si>
-  <si>
     <t>搜索结算单</t>
   </si>
   <si>
     <t>res.settlement.search</t>
   </si>
   <si>
-    <t>ca279d65-1a7f-4202-b7d7-2a422ae6301d</t>
-  </si>
-  <si>
     <t>批量编辑结算单</t>
   </si>
   <si>
     <t>res.settlement.batch.update</t>
   </si>
   <si>
-    <t>83f0a195-c973-489e-be0b-9f93a42a424d</t>
-  </si>
-  <si>
     <t>批量删除结算单</t>
   </si>
   <si>
     <t>res.settlement.batch.delete</t>
   </si>
   <si>
-    <t>8742a46e-3f20-42df-a079-4c1b17cfba5b</t>
-  </si>
-  <si>
     <t>读取结算单全列</t>
   </si>
   <si>
     <t>res.settlement.column.full</t>
   </si>
   <si>
-    <t>f4c0cc56-df98-43ff-9b60-84174d4fede3</t>
-  </si>
-  <si>
     <t>读取结算单个人视图</t>
   </si>
   <si>
     <t>res.settlement.column.my</t>
   </si>
   <si>
-    <t>955ea81e-3303-4761-aa96-32049fee27e3</t>
-  </si>
-  <si>
     <t>更新结算单个人视图</t>
   </si>
   <si>
     <t>res.settlement.column.edit</t>
   </si>
   <si>
-    <t>2e9ba27b-eee2-4949-97cc-08971116e74d</t>
-  </si>
-  <si>
     <t>导入结算单</t>
   </si>
   <si>
     <t>res.settlement.import</t>
   </si>
   <si>
-    <t>793e9628-d82f-48f9-aa6c-7ef7cd6fde98</t>
-  </si>
-  <si>
     <t>导出结算单</t>
   </si>
   <si>
     <t>res.settlement.export</t>
   </si>
   <si>
-    <t>ca612717-8275-4064-91ab-c9f808f3c05e</t>
-  </si>
-  <si>
     <t>检查存在结算单</t>
   </si>
   <si>
     <t>res.settlement.existing</t>
   </si>
   <si>
-    <t>f2229969-05ed-48a2-8c37-535b50008f1a</t>
-  </si>
-  <si>
     <t>检查丢失结算单</t>
   </si>
   <si>
     <t>res.settlement.missing</t>
   </si>
   <si>
-    <t>6de06ff0-98e5-493e-bba1-51b670b07c17</t>
-  </si>
-  <si>
     <t>res.settlement.by.sigma</t>
+  </si>
+  <si>
+    <t>b03c65c7-2735-4606-85c7-3c96025b7796</t>
+  </si>
+  <si>
+    <t>1105dfcb-289e-4864-8d8f-f674f5479e0e</t>
+  </si>
+  <si>
+    <t>c35974eb-9699-4489-a0bf-714cae4562ad</t>
+  </si>
+  <si>
+    <t>cac62ffe-3ca6-4dd4-8e71-a809f6f3f48d</t>
+  </si>
+  <si>
+    <t>97538be8-e538-4d55-8de7-9af942872b5b</t>
+  </si>
+  <si>
+    <t>91ca241b-7402-43e0-9014-2680f91918eb</t>
+  </si>
+  <si>
+    <t>3d5b3994-3547-410c-9de6-ec4bb59daafd</t>
+  </si>
+  <si>
+    <t>cae3be05-533b-44ca-a050-b7c4c91bc480</t>
+  </si>
+  <si>
+    <t>dd95ffb0-9e3f-4102-80bf-6e0a60225102</t>
+  </si>
+  <si>
+    <t>daed4109-9c51-425f-a1ac-22d1bb6a1b3a</t>
+  </si>
+  <si>
+    <t>a480b071-3b38-45d4-89af-21c33efc6bc2</t>
+  </si>
+  <si>
+    <t>69904eed-ae4d-4984-99a0-3a30ab703923</t>
+  </si>
+  <si>
+    <t>c7890379-56fa-435c-9d8e-09f09a17599d</t>
+  </si>
+  <si>
+    <t>2ac05d82-b2b3-4495-8616-1bd33f50933c</t>
+  </si>
+  <si>
+    <t>50d53a52-d269-4c57-aaaa-1dec73ae76ff</t>
+  </si>
+  <si>
+    <t>10c056aa-d5c0-41ed-b2b2-c20c9641603d</t>
+  </si>
+  <si>
+    <t>f2810cee-e6bd-4a02-8864-bf5cf3111bc7</t>
+  </si>
+  <si>
+    <t>fcf926c7-cb71-4280-952d-f87ab792c3dc</t>
+  </si>
+  <si>
+    <t>872faa74-b7c9-40d6-90e1-468d38c08269</t>
+  </si>
+  <si>
+    <t>c88d67d3-d508-4857-a6b2-fc8660fa70e4</t>
+  </si>
+  <si>
+    <t>f0a9fa6b-de5a-43d2-a79a-6c01cd4436bf</t>
+  </si>
+  <si>
+    <t>28b29dbb-1444-43a6-b35e-38334557f1a3</t>
+  </si>
+  <si>
+    <t>c25b9863-2d36-4a59-811d-62031406d6c4</t>
+  </si>
+  <si>
+    <t>433ba5cc-b400-459a-8a17-20ae91119b67</t>
+  </si>
+  <si>
+    <t>de94d8de-a56f-449a-93b5-e94b3da26fcf</t>
+  </si>
+  <si>
+    <t>1373bbda-ba88-475a-9d38-05fb7e11e80e</t>
+  </si>
+  <si>
+    <t>ac88da4d-6129-4715-8bcd-d210ad677c0b</t>
+  </si>
+  <si>
+    <t>755988a6-65c4-4b4e-b161-4995aac89830</t>
+  </si>
+  <si>
+    <t>5c7a1610-5b2a-48c3-b53f-b0a77b815949</t>
+  </si>
+  <si>
+    <t>e544b981-0d0b-4361-9518-f4e12dad806c</t>
+  </si>
+  <si>
+    <t>8040e36c-3c8c-47f3-bcc7-08ce53591484</t>
+  </si>
+  <si>
+    <t>f2637fc7-02f8-4ae0-883b-a36515431206</t>
+  </si>
+  <si>
+    <t>fe317c7c-9f74-494c-857c-552089f5d967</t>
+  </si>
+  <si>
+    <t>c7103561-ae95-4fc6-8ae4-0299ff778aad</t>
+  </si>
+  <si>
+    <t>2cf79022-3978-493b-b58c-1dda34ef0226</t>
+  </si>
+  <si>
+    <t>6dc2fbf1-ecee-4228-af79-1934e85ab880</t>
+  </si>
+  <si>
+    <t>33a80a2a-c2c1-408b-8eaf-414be3f7d830</t>
+  </si>
+  <si>
+    <t>d000ea29-ef0d-401a-987f-cbd408b93c82</t>
+  </si>
+  <si>
+    <t>d63ab198-4488-41e0-bff9-a2bb02cac644</t>
+  </si>
+  <si>
+    <t>e136319d-e055-4dc4-86bc-ba1aafcf8018</t>
+  </si>
+  <si>
+    <t>93554584-ca2a-498c-8818-ed55a58bb535</t>
+  </si>
+  <si>
+    <t>ba3ab341-62ff-4168-b85f-baf13fa1cfcf</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
@@ -1234,7 +1234,7 @@
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="4" customFormat="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1272,125 +1272,125 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>6</v>
       </c>
@@ -1398,140 +1398,140 @@
         <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="21" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="21" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -1540,500 +1540,500 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="21" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B28" s="27" t="str">
         <f t="shared" ref="B28:B42" si="0">A48</f>
-        <v>5d0f1e45-a6c8-4e6b-b786-a096f273c779</v>
+        <v>b03c65c7-2735-4606-85c7-3c96025b7796</v>
       </c>
       <c r="C28" s="27" t="str">
         <f>A15</f>
-        <v>02babc5b-41c0-4dce-9716-d42b1ba7bb63</v>
+        <v>33a80a2a-c2c1-408b-8eaf-414be3f7d830</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="21" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>389ca776-eefc-4605-88e6-d8b75c256b85</v>
+        <v>1105dfcb-289e-4864-8d8f-f674f5479e0e</v>
       </c>
       <c r="C29" s="27" t="str">
         <f>A16</f>
-        <v>dcc5a18d-95ad-4172-b2b3-6fd0749f305b</v>
+        <v>d000ea29-ef0d-401a-987f-cbd408b93c82</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H29" s="21">
         <v>4</v>
       </c>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="21" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="B30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>b9d00842-381e-4d98-a55b-2e18c30978db</v>
+        <v>c35974eb-9699-4489-a0bf-714cae4562ad</v>
       </c>
       <c r="C30" s="27" t="str">
         <f>A17</f>
-        <v>564afdff-aed5-4d91-b65a-030ff876bf46</v>
+        <v>d63ab198-4488-41e0-bff9-a2bb02cac644</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H30" s="21">
         <v>8</v>
       </c>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="21" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="B31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>95016f05-073f-49a8-bb8f-836cee61a3c2</v>
+        <v>cac62ffe-3ca6-4dd4-8e71-a809f6f3f48d</v>
       </c>
       <c r="C31" s="27" t="str">
         <f>A18</f>
-        <v>9b84f53e-1ff0-4254-9b28-18597aca1d9a</v>
+        <v>e136319d-e055-4dc4-86bc-ba1aafcf8018</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H31" s="21">
         <v>12</v>
       </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="21" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>7bf58a04-40c6-494f-9255-c0b8b27edbea</v>
+        <v>97538be8-e538-4d55-8de7-9af942872b5b</v>
       </c>
       <c r="C32" s="27" t="str">
         <f>A15</f>
-        <v>02babc5b-41c0-4dce-9716-d42b1ba7bb63</v>
+        <v>33a80a2a-c2c1-408b-8eaf-414be3f7d830</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H32" s="21">
         <v>1</v>
       </c>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="B33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>ca279d65-1a7f-4202-b7d7-2a422ae6301d</v>
+        <v>91ca241b-7402-43e0-9014-2680f91918eb</v>
       </c>
       <c r="C33" s="27" t="str">
         <f>A17</f>
-        <v>564afdff-aed5-4d91-b65a-030ff876bf46</v>
+        <v>d63ab198-4488-41e0-bff9-a2bb02cac644</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H33" s="21">
         <v>8</v>
       </c>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>83f0a195-c973-489e-be0b-9f93a42a424d</v>
+        <v>3d5b3994-3547-410c-9de6-ec4bb59daafd</v>
       </c>
       <c r="C34" s="27" t="str">
         <f>A18</f>
-        <v>9b84f53e-1ff0-4254-9b28-18597aca1d9a</v>
+        <v>e136319d-e055-4dc4-86bc-ba1aafcf8018</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H34" s="21">
         <v>12</v>
       </c>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="21" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B35" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>8742a46e-3f20-42df-a079-4c1b17cfba5b</v>
+        <v>cae3be05-533b-44ca-a050-b7c4c91bc480</v>
       </c>
       <c r="C35" s="27" t="str">
         <f>A19</f>
-        <v>5f736394-e55c-4745-9b04-7483853fc4a0</v>
+        <v>93554584-ca2a-498c-8818-ed55a58bb535</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H35" s="21">
         <v>3</v>
       </c>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="21" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>f4c0cc56-df98-43ff-9b60-84174d4fede3</v>
+        <v>dd95ffb0-9e3f-4102-80bf-6e0a60225102</v>
       </c>
       <c r="C36" s="27" t="str">
         <f>A19</f>
-        <v>5f736394-e55c-4745-9b04-7483853fc4a0</v>
+        <v>93554584-ca2a-498c-8818-ed55a58bb535</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H36" s="21">
         <v>3</v>
       </c>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="21" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="B37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>955ea81e-3303-4761-aa96-32049fee27e3</v>
+        <v>daed4109-9c51-425f-a1ac-22d1bb6a1b3a</v>
       </c>
       <c r="C37" s="27" t="str">
         <f>A19</f>
-        <v>5f736394-e55c-4745-9b04-7483853fc4a0</v>
+        <v>93554584-ca2a-498c-8818-ed55a58bb535</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H37" s="21">
         <v>11</v>
       </c>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="21" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="B38" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>2e9ba27b-eee2-4949-97cc-08971116e74d</v>
+        <v>a480b071-3b38-45d4-89af-21c33efc6bc2</v>
       </c>
       <c r="C38" s="27" t="str">
         <f>A20</f>
-        <v>df38151c-4a42-4d5e-8ac2-74761df12603</v>
+        <v>ba3ab341-62ff-4168-b85f-baf13fa1cfcf</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H38" s="21">
         <v>5</v>
       </c>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="21" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B39" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>793e9628-d82f-48f9-aa6c-7ef7cd6fde98</v>
+        <v>69904eed-ae4d-4984-99a0-3a30ab703923</v>
       </c>
       <c r="C39" s="27" t="str">
         <f>A20</f>
-        <v>df38151c-4a42-4d5e-8ac2-74761df12603</v>
+        <v>ba3ab341-62ff-4168-b85f-baf13fa1cfcf</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H39" s="21">
         <v>3</v>
       </c>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="21" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B40" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>ca612717-8275-4064-91ab-c9f808f3c05e</v>
+        <v>c7890379-56fa-435c-9d8e-09f09a17599d</v>
       </c>
       <c r="C40" s="27" t="str">
         <f>A15</f>
-        <v>02babc5b-41c0-4dce-9716-d42b1ba7bb63</v>
+        <v>33a80a2a-c2c1-408b-8eaf-414be3f7d830</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="H40" s="21">
         <v>1</v>
       </c>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="21" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B41" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>f2229969-05ed-48a2-8c37-535b50008f1a</v>
+        <v>2ac05d82-b2b3-4495-8616-1bd33f50933c</v>
       </c>
       <c r="C41" s="27" t="str">
         <f>A15</f>
-        <v>02babc5b-41c0-4dce-9716-d42b1ba7bb63</v>
+        <v>33a80a2a-c2c1-408b-8eaf-414be3f7d830</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H41" s="21">
         <v>1</v>
       </c>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="21" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="B42" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>6de06ff0-98e5-493e-bba1-51b670b07c17</v>
+        <v>50d53a52-d269-4c57-aaaa-1dec73ae76ff</v>
       </c>
       <c r="C42" s="27" t="str">
         <f>A15</f>
-        <v>02babc5b-41c0-4dce-9716-d42b1ba7bb63</v>
+        <v>33a80a2a-c2c1-408b-8eaf-414be3f7d830</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H42" s="21">
         <v>1</v>
       </c>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="21" customHeight="1">
       <c r="A43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2042,7 +2042,7 @@
       <c r="G43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="21" customHeight="1">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2051,15 +2051,15 @@
       <c r="G44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="21" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2070,42 +2070,42 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="21" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
@@ -2113,51 +2113,51 @@
         <v>8</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="21" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G48" s="21">
         <v>1</v>
@@ -2168,27 +2168,27 @@
         <v>1</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="21" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G49" s="21">
         <v>4</v>
@@ -2198,24 +2198,24 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="21" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G50" s="21">
         <v>8</v>
@@ -2225,24 +2225,24 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="21" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G51" s="21">
         <v>12</v>
@@ -2252,24 +2252,24 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="21" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G52" s="21">
         <v>1</v>
@@ -2279,24 +2279,24 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="21" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G53" s="21">
         <v>8</v>
@@ -2306,24 +2306,24 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="21" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G54" s="21">
         <v>12</v>
@@ -2333,24 +2333,24 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" ht="21" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G55" s="21">
         <v>3</v>
@@ -2360,24 +2360,24 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="21" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G56" s="21">
         <v>3</v>
@@ -2387,24 +2387,24 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="21" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G57" s="21">
         <v>11</v>
@@ -2414,24 +2414,24 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" ht="21" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G58" s="21">
         <v>5</v>
@@ -2441,24 +2441,24 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" ht="21" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G59" s="21">
         <v>3</v>
@@ -2468,24 +2468,24 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="21" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G60" s="21">
         <v>1</v>
@@ -2495,24 +2495,24 @@
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" ht="21" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G61" s="21">
         <v>1</v>
@@ -2522,24 +2522,24 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="21" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G62" s="21">
         <v>1</v>
@@ -2549,7 +2549,7 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="21" customHeight="1">
       <c r="A63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2558,7 +2558,7 @@
       <c r="G63" s="1"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="21" customHeight="1">
       <c r="A64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
